--- a/1.3-laboratorio/projetos/z-listas-de-materiais-para-producao-combinadas/2022-projeto-semestral-dg/2022-orcamento-multcomercial.xlsx
+++ b/1.3-laboratorio/projetos/z-listas-de-materiais-para-producao-combinadas/2022-projeto-semestral-dg/2022-orcamento-multcomercial.xlsx
@@ -8,10 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Lista de Materiais a Comprar" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Orçamento 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Orçamento 2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Lista de Materiais a Comprar'!$A$6:$F$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Orçamento 1'!$A$5:$F$12</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,13 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Nota: a versão mais atualizada encontra-se no sub-diretório de cada projeto.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t xml:space="preserve">Lista de Materiais
-Multcomercial</t>
+Multcomercial – Orçamento 1</t>
   </si>
   <si>
     <t xml:space="preserve">Quantidade total:</t>
@@ -53,6 +51,71 @@
     <t xml:space="preserve">Link Multcomercial</t>
   </si>
   <si>
+    <t xml:space="preserve">Transistor NPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BC547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/transistor-bc547b-npn-to-92-fairchild-cod-loja-28.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Convencional Difuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3mm/Amarelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/led-3mm-amarelo-difuso-l-314yd-paralight.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HF3FA/005-ZSTF
+(5V/SPDT/10A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/rele-para-uso-geral-5vdc-10a-spdt-1-contato-reversivel-hf3fa-005-zstf.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47R/0,125W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k/0,250W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conector KRE (Bloco Terminal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 vias/5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/borne-de-uso-geral-com-2-vias-kre2-k301-500-2p-bs-passo-de-5-08mm.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conector de Pinos (Pin Header)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macho (40 pinos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.multcomercial.com.br/barra-de-pinos-simples-1x40-macho-bmo040-1e.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de Materiais
+Multcomercial – Orçamento 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capacitor cerâmico</t>
   </si>
   <si>
@@ -62,15 +125,9 @@
     <t xml:space="preserve">https://www.multcomercial.com.br/capacitor-ceramico-disco-10kpf-50v-103-10k-10nf-0-01uf-cod-1341.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistor</t>
-  </si>
-  <si>
     <t xml:space="preserve">220R/0,125W</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">10k/0,125W</t>
   </si>
   <si>
@@ -86,54 +143,6 @@
     <t xml:space="preserve">https://www.multcomercial.com.br/circuito-integrado-cd74hct85e-dip16-harris.html</t>
   </si>
   <si>
-    <t xml:space="preserve">Transistor NPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/transistor-bc547b-npn-to-92-fairchild-cod-loja-28.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED Convencional Difuso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3mm/Amarelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/led-3mm-amarelo-difuso-l-314yd-paralight.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V/SPDT/10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/rele-para-uso-geral-5vdc-10a-spdt-1-contato-reversivel-hf3fa-005-zstf.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k/0,250W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conector KRE (Bloco Terminal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 vias/5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/borne-de-uso-geral-com-2-vias-kre2-k301-500-2p-bs-passo-de-5-08mm.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conector de Pinos (Pin Header)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macho (40 pinos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.multcomercial.com.br/barra-de-pinos-simples-1x40-macho-bmo040-1e.html</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protoboard</t>
   </si>
   <si>
@@ -150,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.multcomercial.com.br/suporte-para-placa-de-circuito-impresso-sp-1-suetoku.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,14 +222,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF0D47A1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="18"/>
       <color rgb="FF0D47A1"/>
       <name val="Arial"/>
@@ -261,14 +259,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7F5E0"/>
-        <bgColor rgb="FFDEEBD7"/>
+        <fgColor rgb="FFDEEBD7"/>
+        <bgColor rgb="FFE7F5E0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBD7"/>
-        <bgColor rgb="FFE7F5E0"/>
+        <fgColor rgb="FFE7F5E0"/>
+        <bgColor rgb="FFDEEBD7"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,19 +356,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,7 +400,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -414,6 +412,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,22 +478,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -572,13 +570,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -590,7 +588,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33.55" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,388 +598,233 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="21.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>8</v>
+      <c r="D6" s="12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <f aca="false">C6*D6</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="n">
-        <v>600</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="14" t="n">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="13" t="n">
         <f aca="false">C7*D7</f>
-        <v>60</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>11</v>
+        <v>11.25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E8" s="14" t="n">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E8" s="13" t="n">
         <f aca="false">C8*D8</f>
-        <v>52.5</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>14</v>
+        <v>247.5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>150</v>
-      </c>
-      <c r="D9" s="13" t="n">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <f aca="false">C9*D9</f>
-        <v>7.5</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
+        <v>3.75</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="n">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <f aca="false">C10*D10</f>
         <v>7.5</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
+      <c r="F10" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12" t="n">
-        <v>75</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14" t="n">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>225</v>
+      </c>
+      <c r="D11" s="12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E11" s="13" t="n">
         <f aca="false">C11*D11</f>
-        <v>75</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
+        <v>270</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="18" t="n">
-        <v>75</v>
-      </c>
-      <c r="D12" s="19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="20" t="n">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="13" t="n">
         <f aca="false">C12*D12</f>
-        <v>15</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="18" t="n">
-        <v>75</v>
-      </c>
-      <c r="D13" s="19" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E13" s="20" t="n">
-        <f aca="false">C13*D13</f>
-        <v>11.25</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-    </row>
     <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="18" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" s="19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E14" s="20" t="n">
-        <f aca="false">C14*D14</f>
-        <v>247.5</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="n">
+        <f aca="false">SUM(E6:E12)</f>
+        <v>561</v>
+      </c>
+      <c r="F14" s="20"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="18" t="n">
-        <v>150</v>
-      </c>
-      <c r="D15" s="19" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="20" t="n">
-        <f aca="false">C15*D15</f>
-        <v>7.5</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="n">
-        <v>225</v>
-      </c>
-      <c r="D16" s="19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E16" s="20" t="n">
-        <f aca="false">C16*D16</f>
-        <v>270</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" s="19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E17" s="20" t="n">
-        <f aca="false">C17*D17</f>
-        <v>6</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>45</v>
-      </c>
-      <c r="D18" s="24" t="n">
-        <v>130</v>
-      </c>
-      <c r="E18" s="25" t="n">
-        <f aca="false">C18*D18</f>
-        <v>5850</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="27" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="28" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <f aca="false">C19*D19</f>
-        <v>568</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32" t="n">
-        <f aca="false">SUM(E7:E19)</f>
-        <v>7177.75</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A6:F19"/>
-  <mergeCells count="2">
+  <autoFilter ref="A5:F12"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" display="https://www.multcomercial.com.br/capacitor-ceramico-disco-10kpf-50v-103-10k-10nf-0-01uf-cod-1341.html"/>
-    <hyperlink ref="F8" r:id="rId2" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
-    <hyperlink ref="F9" r:id="rId3" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
-    <hyperlink ref="F10" r:id="rId4" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
-    <hyperlink ref="F11" r:id="rId5" display="https://www.multcomercial.com.br/circuito-integrado-cd74hct85e-dip16-harris.html"/>
-    <hyperlink ref="F12" r:id="rId6" display="https://www.multcomercial.com.br/transistor-bc547b-npn-to-92-fairchild-cod-loja-28.html"/>
-    <hyperlink ref="F13" r:id="rId7" display="https://www.multcomercial.com.br/led-3mm-amarelo-difuso-l-314yd-paralight.html"/>
-    <hyperlink ref="F14" r:id="rId8" display="https://www.multcomercial.com.br/rele-para-uso-geral-5vdc-10a-spdt-1-contato-reversivel-hf3fa-005-zstf.html"/>
-    <hyperlink ref="F15" r:id="rId9" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
-    <hyperlink ref="F16" r:id="rId10" display="https://www.multcomercial.com.br/borne-de-uso-geral-com-2-vias-kre2-k301-500-2p-bs-passo-de-5-08mm.html"/>
-    <hyperlink ref="F17" r:id="rId11" display="https://www.multcomercial.com.br/barra-de-pinos-simples-1x40-macho-bmo040-1e.html"/>
-    <hyperlink ref="F18" r:id="rId12" display="https://www.multcomercial.com.br/protoboard-3220-pontos-sem-kit-de-jumpers-eic-108-165-40-1080-e-i-c.html"/>
-    <hyperlink ref="F19" r:id="rId13" display="https://www.multcomercial.com.br/suporte-para-placa-de-circuito-impresso-sp-1-suetoku.html"/>
+    <hyperlink ref="F6" r:id="rId1" display="https://www.multcomercial.com.br/transistor-bc547b-npn-to-92-fairchild-cod-loja-28.html"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://www.multcomercial.com.br/led-3mm-amarelo-difuso-l-314yd-paralight.html"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://www.multcomercial.com.br/rele-para-uso-geral-5vdc-10a-spdt-1-contato-reversivel-hf3fa-005-zstf.html"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://www.multcomercial.com.br/borne-de-uso-geral-com-2-vias-kre2-k301-500-2p-bs-passo-de-5-08mm.html"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.multcomercial.com.br/barra-de-pinos-simples-1x40-macho-bmo040-1e.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.39375" bottom="0.39375" header="0.511805555555555" footer="0.511805555555555"/>
@@ -990,7 +833,277 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId14"/>
-  <picture r:id="rId15"/>
+  <drawing r:id="rId8"/>
+  <picture r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="21.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="21.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22" t="n">
+        <v>600</v>
+      </c>
+      <c r="D6" s="23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <f aca="false">C6*D6</f>
+        <v>60</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <f aca="false">C7*D7</f>
+        <v>52.5</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="22" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <f aca="false">C8*D8</f>
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <v>150</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <f aca="false">C9*D9</f>
+        <v>7.5</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>75</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <f aca="false">C10*D10</f>
+        <v>75</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>45</v>
+      </c>
+      <c r="D11" s="28" t="n">
+        <v>130</v>
+      </c>
+      <c r="E11" s="29" t="n">
+        <f aca="false">C11*D11</f>
+        <v>5850</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="32" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="E12" s="33" t="n">
+        <f aca="false">C12*D12</f>
+        <v>355</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="n">
+        <f aca="false">SUM(E6:E12)</f>
+        <v>6407.5</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" display="https://www.multcomercial.com.br/capacitor-ceramico-disco-10kpf-50v-103-10k-10nf-0-01uf-cod-1341.html"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://www.multcomercial.com.br/resistor-de-filme-de-carbono-1-4-de-watt-cr25-5-de-tolerancia-0-22r-a-10m.html"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://www.multcomercial.com.br/circuito-integrado-cd74hct85e-dip16-harris.html"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://www.multcomercial.com.br/protoboard-3220-pontos-sem-kit-de-jumpers-eic-108-165-40-1080-e-i-c.html"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.multcomercial.com.br/suporte-para-placa-de-circuito-impresso-sp-1-suetoku.html"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>